--- a/Inflasi Year on Year Tujuh Kota.xlsx
+++ b/Inflasi Year on Year Tujuh Kota.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0793bf85a1812106/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\Rekdat\Semester6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4DA7A30A50397D6A206102AB8855B237A12C70CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F16FB0DB-0C07-4411-AB2F-B66BE49550C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9547FF3-7D44-4BE9-ABFC-138327137577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="26">
-  <si>
-    <t>Wilayah Inflasi Jawa Barat</t>
-  </si>
   <si>
     <t>Inflasi Year on Year Tujuh Kota (y on y) (Persen)</t>
   </si>
@@ -99,6 +96,9 @@
   <si>
     <t>Kota Tasikmalaya</t>
   </si>
+  <si>
+    <t>wilayah</t>
+  </si>
 </sst>
 </file>
 
@@ -135,9 +135,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,296 +482,344 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
     </row>
-    <row r="2" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2">
-        <v>2024</v>
-      </c>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-    </row>
-    <row r="4" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5">
         <v>3.4</v>
@@ -952,153 +1002,153 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6">
         <v>4.1100000000000003</v>
@@ -1137,153 +1187,153 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX7">
         <v>2.81</v>
@@ -1322,153 +1372,153 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX8">
         <v>4.9000000000000004</v>
@@ -1507,9 +1557,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>3.76</v>
@@ -1692,9 +1742,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>2.68</v>
@@ -1877,9 +1927,9 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>2.79</v>
@@ -2062,9 +2112,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1.39</v>
@@ -2247,9 +2297,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>3.6</v>
@@ -2432,9 +2482,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>3.99</v>
@@ -2617,9 +2667,9 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>1.35</v>
@@ -2807,14 +2857,14 @@
     <mergeCell ref="AL3:AW3"/>
     <mergeCell ref="AX3:BI3"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="N3:Y3"/>
     <mergeCell ref="Z3:AK3"/>
+    <mergeCell ref="B2:BI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M15" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:M15 B1:M1 A2:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Inflasi Year on Year Tujuh Kota.xlsx
+++ b/Inflasi Year on Year Tujuh Kota.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\Rekdat\Semester6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9547FF3-7D44-4BE9-ABFC-138327137577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C070CAA-CB49-43E7-B113-E0AA1B4C47CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Desember</t>
   </si>
   <si>
-    <t>Jawa Barat</t>
-  </si>
-  <si>
     <t>Kab. Bandung</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>wilayah</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -493,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>3.4</v>
@@ -1004,151 +1004,151 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX6">
         <v>4.1100000000000003</v>
@@ -1189,151 +1189,151 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX7">
         <v>2.81</v>
@@ -1374,151 +1374,151 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX8">
         <v>4.9000000000000004</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>3.76</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>2.68</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>2.79</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1.39</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>3.6</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>3.99</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1.35</v>
@@ -2864,7 +2864,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:M15 B1:M1 A2:B2" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:M4 B1:M1 A2:B2 A6:M15 B5:M5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>